--- a/IPD-MA Cochrane papers/6. Data/Summary of heterogeneity assessment across reviews.xlsx
+++ b/IPD-MA Cochrane papers/6. Data/Summary of heterogeneity assessment across reviews.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="11910"/>
+    <workbookView windowWidth="28245" windowHeight="11400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <author>Joanna</author>
   </authors>
   <commentList>
-    <comment ref="A6" authorId="0">
+    <comment ref="A4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -43,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A8" authorId="0">
+    <comment ref="C6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -70,15 +70,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="17">
-  <si>
-    <t>Summary of heterogeneity assessment across reviews</t>
-  </si>
-  <si>
-    <t>Statistical approach</t>
-  </si>
-  <si>
-    <t>One-stage IPD-MA</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="16">
+  <si>
+    <t>One-stage IPD-MA (number of terms)</t>
   </si>
   <si>
     <t>Meta-analysis of interaction terms</t>
@@ -112,6 +106,9 @@
   </si>
   <si>
     <t>Cochran's Q (without I^2 )</t>
+  </si>
+  <si>
+    <t>tau^2</t>
   </si>
   <si>
     <t>From one-stage model</t>
@@ -129,28 +126,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="28">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
+  <fonts count="25">
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -164,45 +146,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,41 +195,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,20 +210,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -283,10 +226,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -298,6 +242,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -306,23 +287,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,25 +322,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,157 +460,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,45 +513,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -598,11 +533,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,16 +559,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,179 +593,196 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1162,233 +1133,228 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="24.125" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="2" max="2" width="36.875" customWidth="1"/>
     <col min="3" max="3" width="33.375" customWidth="1"/>
     <col min="4" max="4" width="28.625" customWidth="1"/>
     <col min="5" max="5" width="16.375" customWidth="1"/>
     <col min="6" max="6" width="28.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" ht="18" spans="1:6">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>9</v>
+      <c r="B9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>9</v>
+      <c r="B10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>9</v>
+      <c r="B11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>9</v>
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
